--- a/examples/analytical/Ammonia/model_parsing_diagnostics.ammonia.xlsx
+++ b/examples/analytical/Ammonia/model_parsing_diagnostics.ammonia.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>label</t>
   </si>
@@ -71,39 +71,36 @@
     <t>Rremin</t>
   </si>
   <si>
-    <t>NH4</t>
+    <t>N_org</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>reactant</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>TNH4</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>TNH4,NH4{+},NH4_ads</t>
-  </si>
-  <si>
-    <t>TNH4</t>
+    <t>TNH4,NH4_ads,TNH4_ads,TNH4_ads_nsf,TNH4_dis</t>
   </si>
   <si>
     <t>dissolved_adsorbed_summed</t>
   </si>
   <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>N_org</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>reactant</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -125,25 +122,25 @@
     <t>type</t>
   </si>
   <si>
+    <t>N_orgID</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>TNH4ID</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>N_orgID</t>
-  </si>
-  <si>
     <t>AmN_org</t>
   </si>
   <si>
     <t>transport matrix</t>
   </si>
   <si>
-    <t>AmNH4</t>
-  </si>
-  <si>
-    <t>AmNH4_ads</t>
+    <t>AmTNH4_dis</t>
+  </si>
+  <si>
+    <t>AmTNH4_ads</t>
   </si>
   <si>
     <t>BcAmN_org</t>
@@ -158,16 +155,16 @@
     <t>Ngrid</t>
   </si>
   <si>
-    <t>BcAmNH4</t>
-  </si>
-  <si>
-    <t>BcCmNH4</t>
-  </si>
-  <si>
-    <t>BcAmNH4_ads</t>
-  </si>
-  <si>
-    <t>BcCmNH4_ads</t>
+    <t>BcAmTNH4_dis</t>
+  </si>
+  <si>
+    <t>BcCmTNH4_dis</t>
+  </si>
+  <si>
+    <t>BcAmTNH4_ads</t>
+  </si>
+  <si>
+    <t>BcCmTNH4_ads</t>
   </si>
   <si>
     <t>alpha</t>
@@ -176,19 +173,25 @@
     <t>bioirrigation</t>
   </si>
   <si>
-    <t>NH40</t>
+    <t>TNH4_dis0</t>
+  </si>
+  <si>
+    <t>dstopw</t>
+  </si>
+  <si>
+    <t>adsorption</t>
   </si>
   <si>
     <t>KNH4_ads</t>
   </si>
   <si>
-    <t>adsorption</t>
-  </si>
-  <si>
-    <t>dstopw</t>
-  </si>
-  <si>
-    <t>NH4,NH4_ads</t>
+    <t>speciation</t>
+  </si>
+  <si>
+    <t>TNH4_dis,NH4_ads</t>
+  </si>
+  <si>
+    <t>TNH4_dis</t>
   </si>
   <si>
     <t>reaction rate</t>
@@ -610,23 +613,23 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -634,35 +637,35 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -680,10 +683,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -704,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -728,23 +731,23 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +757,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -762,138 +765,130 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -911,21 +906,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
@@ -933,32 +928,32 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>

--- a/examples/analytical/Ammonia/model_parsing_diagnostics.ammonia.xlsx
+++ b/examples/analytical/Ammonia/model_parsing_diagnostics.ammonia.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>label</t>
   </si>
@@ -47,7 +47,7 @@
     <t>role</t>
   </si>
   <si>
-    <t>species_modelled</t>
+    <t>formula</t>
   </si>
   <si>
     <t>codename</t>
@@ -83,6 +83,9 @@
     <t>reactant</t>
   </si>
   <si>
+    <t>N_org,</t>
+  </si>
+  <si>
     <t>solid</t>
   </si>
   <si>
@@ -95,7 +98,7 @@
     <t>product</t>
   </si>
   <si>
-    <t>TNH4,NH4_ads,TNH4_ads,TNH4_ads_nsf,TNH4_dis</t>
+    <t>TNH4,,NH4_ads,TNH4_ads,TNH4_ads_nsf,TNH4_dis</t>
   </si>
   <si>
     <t>dissolved_adsorbed_summed</t>
@@ -140,7 +143,7 @@
     <t>AmTNH4_dis</t>
   </si>
   <si>
-    <t>AmTNH4_ads</t>
+    <t>AmTNH4_ads_nsf</t>
   </si>
   <si>
     <t>BcAmN_org</t>
@@ -161,10 +164,10 @@
     <t>BcCmTNH4_dis</t>
   </si>
   <si>
-    <t>BcAmTNH4_ads</t>
-  </si>
-  <si>
-    <t>BcCmTNH4_ads</t>
+    <t>BcAmTNH4_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcCmTNH4_ads_nsf</t>
   </si>
   <si>
     <t>alpha</t>
@@ -613,23 +616,23 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -637,35 +640,35 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -683,10 +686,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -707,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -744,7 +747,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -765,130 +768,130 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -906,54 +909,54 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>

--- a/examples/analytical/Ammonia/model_parsing_diagnostics.ammonia.xlsx
+++ b/examples/analytical/Ammonia/model_parsing_diagnostics.ammonia.xlsx
@@ -16,9 +16,10 @@
     <sheet name="species_in_model" sheetId="1" r:id="rId1"/>
     <sheet name="species_extra" r:id="rId5" sheetId="2"/>
     <sheet name="elements_in_reactions" r:id="rId6" sheetId="3"/>
-    <sheet name="reaction_dependency" r:id="rId7" sheetId="4"/>
-    <sheet name="transport_parameters" r:id="rId8" sheetId="5"/>
-    <sheet name="reaction_parameters" r:id="rId9" sheetId="6"/>
+    <sheet name="speciation" r:id="rId7" sheetId="4"/>
+    <sheet name="reaction_dependency" r:id="rId8" sheetId="5"/>
+    <sheet name="transport_parameters" r:id="rId9" sheetId="6"/>
+    <sheet name="reaction_parameters" r:id="rId10" sheetId="7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>label</t>
   </si>
@@ -83,9 +84,6 @@
     <t>reactant</t>
   </si>
   <si>
-    <t>N_org,</t>
-  </si>
-  <si>
     <t>solid</t>
   </si>
   <si>
@@ -98,10 +96,10 @@
     <t>product</t>
   </si>
   <si>
-    <t>TNH4,,NH4_ads,TNH4_ads,TNH4_ads_nsf,TNH4_dis</t>
-  </si>
-  <si>
-    <t>dissolved_adsorbed_summed</t>
+    <t>TNH4,NH4_ads,TNH4_ads,TNH4_ads_nsf,TNH4_dis</t>
+  </si>
+  <si>
+    <t>dissolved_speciation</t>
   </si>
   <si>
     <t>species</t>
@@ -116,15 +114,51 @@
     <t>coef</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>formula_</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>NH4_ads</t>
+  </si>
+  <si>
+    <t>adsorbed</t>
+  </si>
+  <si>
+    <t>Adsorbed</t>
+  </si>
+  <si>
+    <t>TNH4_ads</t>
+  </si>
+  <si>
+    <t>dissolved</t>
+  </si>
+  <si>
+    <t>Total adsorbed</t>
+  </si>
+  <si>
+    <t>TNH4_ads_nsf</t>
+  </si>
+  <si>
+    <t>Surface adsorbed</t>
+  </si>
+  <si>
+    <t>TNH4_dis</t>
+  </si>
+  <si>
+    <t>Total dissolved</t>
+  </si>
+  <si>
     <t>dependence</t>
   </si>
   <si>
     <t>parameter</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>N_orgID</t>
   </si>
   <si>
@@ -143,7 +177,7 @@
     <t>AmTNH4_dis</t>
   </si>
   <si>
-    <t>AmTNH4_ads_nsf</t>
+    <t>AmTNH4_ads</t>
   </si>
   <si>
     <t>BcAmN_org</t>
@@ -164,10 +198,10 @@
     <t>BcCmTNH4_dis</t>
   </si>
   <si>
-    <t>BcAmTNH4_ads_nsf</t>
-  </si>
-  <si>
-    <t>BcCmTNH4_ads_nsf</t>
+    <t>BcAmTNH4_ads</t>
+  </si>
+  <si>
+    <t>BcCmTNH4_ads</t>
   </si>
   <si>
     <t>alpha</t>
@@ -192,9 +226,6 @@
   </si>
   <si>
     <t>TNH4_dis,NH4_ads</t>
-  </si>
-  <si>
-    <t>TNH4_dis</t>
   </si>
   <si>
     <t>reaction rate</t>
@@ -616,23 +647,23 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -640,35 +671,35 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +717,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -722,6 +753,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -734,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -747,7 +875,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -758,7 +886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -768,130 +896,130 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +1027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -909,54 +1037,54 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
